--- a/하단 인터페이스/하단 인터페이스.xlsx
+++ b/하단 인터페이스/하단 인터페이스.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Sheperd_Holidays\하단 인터페이스\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F5C0D7-2B18-4E1C-91B3-C7E077DFAE13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D653D638-C3AD-49EC-8CDC-C8C2192A4DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7BA86FE3-6026-4542-9E9A-BAA3BB6360EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7BA86FE3-6026-4542-9E9A-BAA3BB6360EB}"/>
   </bookViews>
   <sheets>
     <sheet name="변경점" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>건물 버튼과 건물 건설 창을 구분 하는 바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>건물/유닛 선택 창</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,10 +134,6 @@
   </si>
   <si>
     <t>유닛 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1. 각 버튼들은 해당 유닛의 이미지가 버튼 내부에 존재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -189,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-2. 해당 건물에서 생산 가능한 유닛 버튼 존재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>건물 건설 위치 선택 상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,10 +221,6 @@
   </si>
   <si>
     <t>이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-6. 유닛 생산에 필요한 건초가 부족하거나 필요 건물이 없는 경우 버튼 50% 밝기로 비활성화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -417,6 +401,66 @@
   </si>
   <si>
     <t>건물/유닛 선택 창에 추가 예정 이미지 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>클릭 시 건물/유닛 선택 창</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이 유닛 창</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 전환</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼과 창을 구분 하는 바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2. 각 버튼들은 해당 유닛의 이미지가 버튼 내부에 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1. 모든 건물에서 생산 가능한 유닛 버튼 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-6. 유닛 생산에 필요한 건초가 부족하거나 필요 건물이 없는 경우 버튼 30% 밝기로 비활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 버튼 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 선택 창 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,7 +745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,6 +914,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -892,1008 +939,1078 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>656161</xdr:colOff>
+      <xdr:colOff>656162</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>22274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>579707</xdr:colOff>
+      <xdr:colOff>579708</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>19045</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="467" name="그룹 466">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC844397-3F00-47A3-A3C9-0EE39E5A6C59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD6B7A3-7DE5-4ECE-8A86-EB4B0000C051}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="656161" y="698549"/>
-          <a:ext cx="4014534" cy="2187521"/>
-          <a:chOff x="656170" y="231022"/>
-          <a:chExt cx="3920528" cy="2211988"/>
+          <a:off x="656162" y="702212"/>
+          <a:ext cx="3997315" cy="2224156"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="13" name="그림 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD6B7A3-7DE5-4ECE-8A86-EB4B0000C051}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="656170" y="231022"/>
-            <a:ext cx="3920528" cy="2211988"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="타원 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{590FCEE4-3DAA-4F9D-A829-187F9245D167}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeAspect="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="867632" y="1473777"/>
-            <a:ext cx="178268" cy="181458"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>291474</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>222650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>473234</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>182367</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="타원 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{590FCEE4-3DAA-4F9D-A829-187F9245D167}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="291474" y="2684496"/>
+          <a:ext cx="181760" cy="182456"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
-          <a:ln w="19050">
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-ea"/>
-              </a:rPr>
-              <a:t>1</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>668212</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>169985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>574432</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB3F71B4-DD21-4394-AE04-3285A9BC586B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="668212" y="2631831"/>
+          <a:ext cx="574435" cy="292092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US">
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>611574</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>138855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>61815</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>98260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="타원 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F204B5A-E81F-49D4-B737-F62F36E1D308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1279789" y="1932486"/>
+          <a:ext cx="182934" cy="182143"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-ea"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="직사각형 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB3F71B4-DD21-4394-AE04-3285A9BC586B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="667989" y="1831349"/>
-            <a:ext cx="591298" cy="609230"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US">
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>662409</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>55078</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2767</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="직사각형 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240AAAAD-5C57-49AC-8C87-3245161737F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1330624" y="2294186"/>
+          <a:ext cx="73051" cy="624074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US">
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>188884</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>144109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>378151</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104147</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="타원 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C5E1F6-1C20-45D8-A3E7-6E7B6911DAE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2926222" y="1937740"/>
+          <a:ext cx="189267" cy="182776"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:latin typeface="+mn-ea"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="타원 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F204B5A-E81F-49D4-B737-F62F36E1D308}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeAspect="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1267818" y="1454565"/>
-            <a:ext cx="179420" cy="181147"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>46180</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>507612</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9938</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="직사각형 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD45FB56-D5F4-424B-B600-73D7EC0188E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447088" y="2302764"/>
+          <a:ext cx="3134293" cy="614497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-ea"/>
-              </a:rPr>
-              <a:t>2</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="직사각형 24">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240AAAAD-5C57-49AC-8C87-3245161737F0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1317676" y="1814287"/>
-            <a:ext cx="71648" cy="620660"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="타원 28">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C5E1F6-1C20-45D8-A3E7-6E7B6911DAE4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeAspect="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2865376" y="1459791"/>
-            <a:ext cx="185631" cy="181776"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-ea"/>
-              </a:rPr>
-              <a:t>3</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="직사각형 29">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD45FB56-D5F4-424B-B600-73D7EC0188E6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1431903" y="1822818"/>
-            <a:ext cx="3074084" cy="611135"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US">
-              <a:latin typeface="+mn-ea"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US">
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>15533</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>175115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>593228</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>16401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1931,13 +2048,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>203913</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>74329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>387127</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>43641</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2109,13 +2226,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>42725</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>75252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>558070</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>12993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2271,13 +2388,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>556200</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>75252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>497736</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>12993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2433,13 +2550,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>98900</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>135737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>287829</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>105048</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2611,13 +2728,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>207101</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>82793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>511090</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>168519</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2633,8 +2750,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="878614" y="23485718"/>
-          <a:ext cx="4394976" cy="523876"/>
+          <a:off x="875316" y="24027178"/>
+          <a:ext cx="4377759" cy="531203"/>
           <a:chOff x="877661" y="22289485"/>
           <a:chExt cx="4304489" cy="561942"/>
         </a:xfrm>
@@ -4064,13 +4181,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>212481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>217375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4108,13 +4225,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>185643</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>61398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>372342</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>12262</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4286,13 +4403,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>56565</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>63766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>535782</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>20165</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4448,13 +4565,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2849</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>209257</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>544654</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>192862</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4492,13 +4609,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>343152</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>108997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>156420</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>110604</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4547,13 +4664,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1079</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>108932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>527544</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>26818</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4710,13 +4827,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>58621</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>280930</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>111649</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4759,13 +4876,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>329185</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>112855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>590038</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>24660</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4930,13 +5047,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>554805</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>77426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19941</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>208642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4983,13 +5100,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>590855</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>112855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>184958</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>24660</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5154,13 +5271,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>144750</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>112855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>405602</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>24660</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5327,13 +5444,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>406419</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>112855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>522</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>24660</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5500,13 +5617,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>294565</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>88008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>211915</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>36234</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5664,13 +5781,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>583161</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>214537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>584969</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>108997</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5723,13 +5840,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>544895</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>83720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>625042</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>214537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5897,13 +6014,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>211915</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>164648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>507768</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>172253</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5956,13 +6073,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>507768</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>103863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>587915</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>5168</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6130,13 +6247,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>158716</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>108997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>638734</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>110604</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6185,13 +6302,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>110130</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>88008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>27480</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>36234</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6349,13 +6466,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>398726</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>214537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>406439</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>108997</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6408,13 +6525,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>366365</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>83720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>446512</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>214537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6582,13 +6699,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>27480</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>164648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>323333</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>172253</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6641,13 +6758,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>323332</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>103863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>403479</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>5168</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6815,13 +6932,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>195430</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>27445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>576429</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>220619</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6986,13 +7103,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>204981</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>21714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600927</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>225187</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7155,16 +7272,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>290012</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114778</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>473234</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>296884</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>70629</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>668212</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>93292</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7177,14 +7294,14 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="16" idx="0"/>
-          <a:endCxn id="15" idx="4"/>
+          <a:stCxn id="16" idx="1"/>
+          <a:endCxn id="15" idx="6"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="956762" y="2107701"/>
-          <a:ext cx="6872" cy="175659"/>
+          <a:off x="473234" y="2775724"/>
+          <a:ext cx="194978" cy="2153"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7214,16 +7331,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19989</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>698935</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>95306</xdr:rowOff>
+      <xdr:rowOff>98260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>24016</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>703041</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>53611</xdr:rowOff>
+      <xdr:rowOff>55078</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7242,8 +7359,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1353489" y="2088229"/>
-          <a:ext cx="4027" cy="178113"/>
+          <a:off x="1367150" y="2114629"/>
+          <a:ext cx="4106" cy="179557"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7274,15 +7391,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>292214</xdr:colOff>
+      <xdr:colOff>276897</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>100378</xdr:rowOff>
+      <xdr:rowOff>104147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>302972</xdr:colOff>
+      <xdr:colOff>283518</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>61041</xdr:rowOff>
+      <xdr:rowOff>63656</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7300,9 +7417,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2959214" y="2093301"/>
-          <a:ext cx="10758" cy="180471"/>
+        <a:xfrm flipV="1">
+          <a:off x="3014235" y="2120516"/>
+          <a:ext cx="6621" cy="182248"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7334,13 +7451,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>879</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>12311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>578094</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>54355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7378,14 +7495,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>315936</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>126024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>552427</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>148961</xdr:rowOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>148962</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7431,13 +7548,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57003</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276811</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>94612</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7670,7 +7787,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95543</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>57296</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="245067" cy="201915"/>
@@ -7729,7 +7846,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25497</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>53486</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="264560" cy="201915"/>
@@ -7788,7 +7905,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1904</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>57296</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="228524" cy="201915"/>
@@ -7847,7 +7964,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>610039</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>53486</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="233397" cy="201915"/>
@@ -7906,7 +8023,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>110196</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>206032</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="364202" cy="247504"/>
@@ -7964,7 +8081,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>91733</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>53486</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="245067" cy="201915"/>
@@ -8023,7 +8140,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>21687</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>57296</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="264560" cy="201915"/>
@@ -8082,7 +8199,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1904</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>53486</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="228524" cy="201915"/>
@@ -8141,7 +8258,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>610039</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>57296</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="233397" cy="201915"/>
@@ -8200,7 +8317,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>108291</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>209842</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="364202" cy="247504"/>
@@ -8258,7 +8375,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95543</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>57295</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="236603" cy="201915"/>
@@ -8317,7 +8434,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>17877</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>53485</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="233525" cy="201915"/>
@@ -8376,7 +8493,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1904</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>57295</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="232500" cy="201915"/>
@@ -8435,7 +8552,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>610039</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>53485</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="239874" cy="201915"/>
@@ -8494,7 +8611,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>106386</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>206032</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="364202" cy="247504"/>
@@ -8552,7 +8669,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95543</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>121333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="245067" cy="201915"/>
@@ -8611,7 +8728,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>17877</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>125143</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="264560" cy="201915"/>
@@ -8670,7 +8787,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1904</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>121333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="228524" cy="201915"/>
@@ -8729,7 +8846,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>610039</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>125143</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="233397" cy="201915"/>
@@ -8788,7 +8905,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>102576</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>52166</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="364202" cy="247504"/>
@@ -8846,7 +8963,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133404</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>17767</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="589066" cy="201915"/>
@@ -8906,7 +9023,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>81096</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>21577</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="589066" cy="201915"/>
@@ -8966,7 +9083,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>32598</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>17767</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="589066" cy="201915"/>
@@ -9026,7 +9143,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>593169</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>93107</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="573643" cy="543878"/>
@@ -9086,7 +9203,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>650850</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>17767</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="589066" cy="201915"/>
@@ -9146,7 +9263,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>72619</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>219021</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="589066" cy="201915"/>
@@ -9206,7 +9323,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>33646</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>215211</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="589066" cy="201915"/>
@@ -9266,7 +9383,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>642373</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>219021</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="589066" cy="201915"/>
@@ -9326,7 +9443,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>538099</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>70286</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="573643" cy="543878"/>
@@ -9386,7 +9503,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>599590</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>219021</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="589066" cy="201915"/>
@@ -9446,13 +9563,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>189555</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>103143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>191688</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>75252</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9740,9 +9857,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>106386</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>33153</xdr:rowOff>
+      <xdr:colOff>88801</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>191415</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="364202" cy="247504"/>
     <xdr:sp macro="" textlink="">
@@ -9758,7 +9875,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="773136" y="2688247"/>
+          <a:off x="757016" y="2653261"/>
           <a:ext cx="364202" cy="247504"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9799,7 +9916,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>89297</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>41890</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="589066" cy="201915"/>
@@ -9859,7 +9976,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>52229</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>36175</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="589066" cy="201915"/>
@@ -9919,7 +10036,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>659051</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>41890</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="589066" cy="201915"/>
@@ -9979,7 +10096,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>596687</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>113421</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="573643" cy="543878"/>
@@ -10039,7 +10156,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>614363</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>41890</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="589066" cy="201915"/>
@@ -10399,13 +10516,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>565547</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>48650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>510893</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>206656</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10561,13 +10678,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>112057</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>101515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>300986</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>74635</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10739,13 +10856,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>202712</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>72730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>204845</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>48650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10798,7 +10915,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>60410</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>72666</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="589066" cy="201915"/>
@@ -10858,7 +10975,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>17627</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>66951</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="589066" cy="201915"/>
@@ -10918,7 +11035,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>630164</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>72666</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="589066" cy="201915"/>
@@ -10978,7 +11095,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>587565</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>136576</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="573643" cy="543878"/>
@@ -11038,7 +11155,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>581666</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>72666</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="589066" cy="201915"/>
@@ -11098,13 +11215,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>21670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>555307</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>59530</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11260,13 +11377,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>218426</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>98714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>414975</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>69929</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11438,13 +11555,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>314796</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>68024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>337185</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>21670</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11497,13 +11614,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>466487</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>21670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>263604</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>59530</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11659,13 +11776,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>591568</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>94904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>121367</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>68024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11837,13 +11954,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>24998</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>66119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>35481</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>17860</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11896,13 +12013,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>117158</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>55245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>577453</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>93105</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12058,13 +12175,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>444883</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>87046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>647147</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>60166</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12236,13 +12353,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>647147</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>182787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>117158</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>188118</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12295,13 +12412,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>35719</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>174782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>321469</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12457,13 +12574,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>420832</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>174199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>621191</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12635,13 +12752,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>513874</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>522917</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>170972</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12690,6 +12807,463 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>291474</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>146450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>473234</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106168</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="타원 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71571644-1B57-4AAC-BD65-92D478CA9118}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="291474" y="2385558"/>
+          <a:ext cx="181760" cy="182456"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>668212</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>93785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>574432</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>163139</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="직사각형 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF83820-A2E9-48F3-8180-DFEDB460CAA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="668212" y="2332893"/>
+          <a:ext cx="574435" cy="292092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US">
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>473234</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>668212</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>17093</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="직선 연결선 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EAC663E-4E24-45F8-92AB-2DB4EB3F6744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="141" idx="1"/>
+          <a:endCxn id="140" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="473234" y="2476786"/>
+          <a:ext cx="194978" cy="2153"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88801</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>126938</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="364202" cy="247504"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="TextBox 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5734583-7ED6-451F-B853-BAA362F1E724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="757016" y="2366046"/>
+          <a:ext cx="364202" cy="247504"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="700"/>
+            <a:t>유닛</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13029,10 +13603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6D7F37-0864-47CE-9E54-DD04F8E03B4C}">
-  <dimension ref="B2:H4"/>
+  <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13046,7 +13620,7 @@
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
@@ -13057,7 +13631,7 @@
       <c r="B3" s="26"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -13065,15 +13639,48 @@
       <c r="H3" s="23"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
-        <v>89</v>
+      <c r="B4" s="26"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>85</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="15"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="26"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="26">
+        <v>20201127</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13084,10 +13691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6691A6DC-3AB5-479A-B0C4-D5471FE8A986}">
-  <dimension ref="A1:AE149"/>
+  <dimension ref="A1:AE150"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A119" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13098,7 +13705,7 @@
     <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="32"/>
     </row>
@@ -13136,7 +13743,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -13148,14 +13755,14 @@
         <v>2</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="11" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -13167,56 +13774,63 @@
         <v>3</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="B19" s="10">
+        <v>4</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="28"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="23"/>
+      <c r="B21" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="28" t="s">
-        <v>60</v>
-      </c>
+      <c r="B22" s="28"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -13227,7 +13841,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="28" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -13238,39 +13852,47 @@
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="16" t="s">
-        <v>28</v>
+      <c r="B24" s="28" t="s">
+        <v>19</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="15"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="3"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="B25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="42" t="s">
-        <v>21</v>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="42" t="s">
+        <v>20</v>
       </c>
-      <c r="C27" s="24"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="25"/>
-      <c r="C28" s="5"/>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="25"/>
@@ -13300,106 +13922,80 @@
       <c r="B35" s="25"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="B40" s="6" t="s">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B36" s="25"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="6" t="s">
+      <c r="D41" s="9"/>
+      <c r="E41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="7"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="7"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="B41" s="10">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B42" s="10">
         <v>1</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="11" t="s">
+      <c r="D42" s="12"/>
+      <c r="E42" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="12"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A42" s="23"/>
-      <c r="B42" s="4">
-        <v>2</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>46</v>
+      <c r="F42" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="B44" s="20" t="s">
-        <v>87</v>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A43" s="23"/>
+      <c r="B43" s="4">
+        <v>2</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="21"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
+      <c r="C43" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="12"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="B45" s="26" t="s">
-        <v>27</v>
+      <c r="B45" s="20" t="s">
+        <v>83</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="23"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="21"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
@@ -13420,7 +14016,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B46" s="26" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -13450,7 +14046,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B47" s="26" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -13479,8 +14075,8 @@
       <c r="AE47" s="5"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="B48" s="45" t="s">
-        <v>48</v>
+      <c r="B48" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -13509,17 +14105,17 @@
       <c r="AE48" s="5"/>
     </row>
     <row r="49" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B49" s="17" t="s">
-        <v>47</v>
+      <c r="B49" s="45" t="s">
+        <v>44</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="15"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="23"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
@@ -13538,135 +14134,150 @@
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
     </row>
-    <row r="51" spans="2:31" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="52" spans="2:31" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="31" t="s">
-        <v>33</v>
+    <row r="50" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B50" s="17" t="s">
+        <v>43</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="24"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="15"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B65" s="8" t="s">
+    <row r="52" spans="2:31" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="53" spans="2:31" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="24"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C66" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="8" t="s">
+      <c r="D66" s="7"/>
+      <c r="E66" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F66" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="7"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="7"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B66" s="4">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B67" s="4">
         <v>1</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="12"/>
-      <c r="E66" s="1" t="s">
+      <c r="D67" s="12"/>
+      <c r="E67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F66" s="29" t="s">
-        <v>34</v>
+      <c r="F67" s="29" t="s">
+        <v>31</v>
       </c>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="12"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="12"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B67" s="44">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B68" s="44">
         <v>2</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C68" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="14" t="s">
+      <c r="D68" s="15"/>
+      <c r="E68" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="F68" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="15"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="15"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B68" s="3"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B69" s="3"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
     </row>
-    <row r="69" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="70" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="43" t="s">
-        <v>35</v>
+    <row r="70" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="71" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="43" t="s">
+        <v>32</v>
       </c>
-      <c r="C70" s="24"/>
+      <c r="C71" s="24"/>
     </row>
-    <row r="71" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" spans="2:12" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="19">
+    <row r="72" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" spans="2:12" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="19">
         <v>1</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C73" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="34"/>
-    </row>
-    <row r="73" spans="2:12" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="35"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="36"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="34"/>
     </row>
     <row r="74" spans="2:12" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -13676,10 +14287,12 @@
       <c r="L74" s="36"/>
     </row>
     <row r="75" spans="2:12" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="35"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="B75" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -13689,12 +14302,8 @@
       <c r="L75" s="36"/>
     </row>
     <row r="76" spans="2:12" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="28">
-        <v>2</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B76" s="35"/>
+      <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -13706,8 +14315,12 @@
       <c r="L76" s="36"/>
     </row>
     <row r="77" spans="2:12" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="35"/>
-      <c r="C77" s="2"/>
+      <c r="B77" s="28">
+        <v>2</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -13719,140 +14332,147 @@
       <c r="L77" s="36"/>
     </row>
     <row r="78" spans="2:12" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="39" t="s">
+      <c r="B78" s="35"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="36"/>
+    </row>
+    <row r="79" spans="2:12" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="41"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="41"/>
     </row>
-    <row r="79" spans="2:12" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" spans="2:12" s="30" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="81" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="31" t="s">
-        <v>22</v>
+    <row r="80" spans="2:12" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" spans="2:10" s="30" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="82" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="31" t="s">
+        <v>21</v>
       </c>
-      <c r="C81" s="24"/>
+      <c r="C82" s="24"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B82" s="25"/>
-      <c r="C82" s="5"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B83" s="25"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B84" s="25"/>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B85" s="25"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B86" s="25"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B87" s="25"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B88" s="25"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B89" s="25"/>
       <c r="C89" s="5"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B94" s="6" t="s">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B90" s="25"/>
+      <c r="C90" s="5"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C95" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="7"/>
-      <c r="E94" s="6" t="s">
+      <c r="D95" s="7"/>
+      <c r="E95" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F95" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="7"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="7"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B95" s="10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B96" s="10">
         <v>1</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>25</v>
+      <c r="C96" s="11" t="s">
+        <v>24</v>
       </c>
-      <c r="D95" s="12"/>
-      <c r="E95" s="11" t="s">
+      <c r="D96" s="12"/>
+      <c r="E96" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F95" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="12"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A96" s="23"/>
-      <c r="B96" s="4">
-        <v>2</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D96" s="12"/>
-      <c r="E96" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>46</v>
+      <c r="F96" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A97" s="23"/>
+      <c r="B97" s="4">
+        <v>2</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" s="12"/>
+      <c r="E97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B98" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="22"/>
-      <c r="J98" s="21"/>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B99" s="26" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -13865,9 +14485,9 @@
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B100" s="26" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -13880,9 +14500,9 @@
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B101" s="45" t="s">
-        <v>59</v>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B101" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -13895,9 +14515,9 @@
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B102" s="26" t="s">
-        <v>41</v>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B102" s="45" t="s">
+        <v>55</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -13910,9 +14530,9 @@
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B103" s="26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -13925,9 +14545,9 @@
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B104" s="26" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -13940,8 +14560,10 @@
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B105" s="26"/>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B105" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -13953,10 +14575,8 @@
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B106" s="26" t="s">
-        <v>24</v>
-      </c>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B106" s="26"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -13968,18 +14588,22 @@
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B107" s="46"/>
-      <c r="C107" s="47"/>
-      <c r="D107" s="47"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="47"/>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B107" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="23"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B108" s="46"/>
       <c r="C108" s="47"/>
       <c r="D108" s="47"/>
@@ -13990,95 +14614,86 @@
       <c r="I108" s="5"/>
       <c r="J108" s="23"/>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B109" s="48"/>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
-      <c r="E109" s="49"/>
-      <c r="F109" s="49"/>
-      <c r="G109" s="49"/>
-      <c r="H109" s="49"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="15"/>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B109" s="46"/>
+      <c r="C109" s="47"/>
+      <c r="D109" s="47"/>
+      <c r="E109" s="47"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="47"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="23"/>
     </row>
-    <row r="111" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="112" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B112" s="31" t="s">
-        <v>37</v>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B110" s="48"/>
+      <c r="C110" s="49"/>
+      <c r="D110" s="49"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="49"/>
+      <c r="G110" s="49"/>
+      <c r="H110" s="49"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="15"/>
+    </row>
+    <row r="112" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="113" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B113" s="31" t="s">
+        <v>34</v>
       </c>
-      <c r="C112" s="24"/>
+      <c r="C113" s="24"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B125" s="6" t="s">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B126" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C126" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="7"/>
-      <c r="E125" s="6" t="s">
+      <c r="D126" s="7"/>
+      <c r="E126" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="F126" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="7"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="7"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B126" s="54">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B127" s="54">
         <v>1</v>
       </c>
-      <c r="C126" s="51" t="s">
-        <v>50</v>
+      <c r="C127" s="51" t="s">
+        <v>46</v>
       </c>
-      <c r="D126" s="52"/>
-      <c r="E126" s="51" t="s">
-        <v>51</v>
+      <c r="D127" s="52"/>
+      <c r="E127" s="51" t="s">
+        <v>47</v>
       </c>
-      <c r="F126" s="20" t="s">
-        <v>39</v>
+      <c r="F127" s="20" t="s">
+        <v>36</v>
       </c>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="52"/>
+      <c r="G127" s="53"/>
+      <c r="H127" s="53"/>
+      <c r="I127" s="53"/>
+      <c r="J127" s="52"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B127" s="10">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B128" s="10">
         <v>1</v>
       </c>
-      <c r="C127" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D127" s="12"/>
-      <c r="E127" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="13"/>
-      <c r="J127" s="12"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A128" s="23"/>
-      <c r="B128" s="4">
-        <v>2</v>
-      </c>
       <c r="C128" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D128" s="12"/>
       <c r="E128" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G128" s="13"/>
       <c r="H128" s="13"/>
@@ -14088,87 +14703,92 @@
     <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" s="23"/>
       <c r="B129" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="C129" s="51" t="s">
-        <v>55</v>
+      <c r="C129" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="D129" s="12"/>
       <c r="E129" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
-      <c r="F129" s="17" t="s">
-        <v>40</v>
+      <c r="F129" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G129" s="13"/>
       <c r="H129" s="13"/>
       <c r="I129" s="13"/>
       <c r="J129" s="12"/>
     </row>
-    <row r="131" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C131" s="5"/>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A130" s="23"/>
+      <c r="B130" s="4">
+        <v>3</v>
+      </c>
+      <c r="C130" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D130" s="12"/>
+      <c r="E130" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F130" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
+      <c r="J130" s="12"/>
     </row>
     <row r="132" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B132" s="55" t="s">
-        <v>69</v>
-      </c>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C133" s="18"/>
+    <row r="133" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B133" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C133" s="5"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B134" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="7"/>
+      <c r="C134" s="18"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B135" s="51" t="s">
-        <v>62</v>
+      <c r="B135" s="6" t="s">
+        <v>57</v>
       </c>
-      <c r="C135" s="52"/>
-      <c r="D135" s="17" t="s">
-        <v>71</v>
+      <c r="C135" s="9"/>
+      <c r="D135" s="6" t="s">
+        <v>50</v>
       </c>
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="18"/>
-      <c r="I135" s="18"/>
-      <c r="J135" s="15"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="7"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B136" s="51" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
-      <c r="C136" s="12"/>
-      <c r="D136" s="11" t="s">
-        <v>72</v>
+      <c r="C136" s="52"/>
+      <c r="D136" s="17" t="s">
+        <v>67</v>
       </c>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="12"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="15"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B137" s="51" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C137" s="12"/>
-      <c r="D137" s="51" t="s">
-        <v>73</v>
+      <c r="D137" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
@@ -14179,11 +14799,11 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B138" s="51" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C138" s="12"/>
       <c r="D138" s="51" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
@@ -14194,11 +14814,11 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B139" s="51" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C139" s="12"/>
       <c r="D139" s="51" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E139" s="13"/>
       <c r="F139" s="13"/>
@@ -14209,11 +14829,11 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B140" s="51" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C140" s="12"/>
       <c r="D140" s="51" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E140" s="13"/>
       <c r="F140" s="13"/>
@@ -14223,12 +14843,12 @@
       <c r="J140" s="12"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B141" s="50" t="s">
-        <v>68</v>
+      <c r="B141" s="51" t="s">
+        <v>63</v>
       </c>
-      <c r="C141" s="15"/>
+      <c r="C141" s="12"/>
       <c r="D141" s="51" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
@@ -14237,60 +14857,61 @@
       <c r="I141" s="13"/>
       <c r="J141" s="12"/>
     </row>
-    <row r="143" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="144" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B144" s="55" t="s">
-        <v>70</v>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B142" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C142" s="15"/>
+      <c r="D142" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="12"/>
+    </row>
+    <row r="144" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="145" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B145" s="55" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B146" s="6" t="s">
-        <v>61</v>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B147" s="6" t="s">
+        <v>57</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>54</v>
+      <c r="C147" s="6" t="s">
+        <v>50</v>
       </c>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
-      <c r="I146" s="7"/>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B147" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="18"/>
-      <c r="I147" s="15"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="7"/>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B148" s="51" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
-      <c r="C148" s="11" t="s">
-        <v>82</v>
+      <c r="C148" s="17" t="s">
+        <v>77</v>
       </c>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-      <c r="H148" s="13"/>
-      <c r="I148" s="12"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="15"/>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B149" s="51" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D149" s="13"/>
       <c r="E149" s="13"/>
@@ -14299,10 +14920,213 @@
       <c r="H149" s="13"/>
       <c r="I149" s="12"/>
     </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B150" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100F41EDF4E0B88F14C95F9A2474051A269" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="14e5070e625fd6c13137d9305108d79a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6b06dd95-1cf8-4c74-b131-970871c0ec18" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61ec7e10cb760893fc07e00d5642745d" ns3:_="">
+    <xsd:import namespace="6b06dd95-1cf8-4c74-b131-970871c0ec18"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6b06dd95-1cf8-4c74-b131-970871c0ec18" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="콘텐츠 형식"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="제목"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BF70FB7-0480-4FCD-82C9-54F9F4E94A6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6b06dd95-1cf8-4c74-b131-970871c0ec18"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A1B56B9-25D2-49FB-B6AC-2122E6691F34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AD45188-EE12-4B18-9CCA-576894CE8A94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6b06dd95-1cf8-4c74-b131-970871c0ec18"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/하단 인터페이스/하단 인터페이스.xlsx
+++ b/하단 인터페이스/하단 인터페이스.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home_pc\OneDrive\바탕 화면\Sheperd_Holidays\하단 인터페이스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACC8487-A3E7-436D-A49D-DE6066ECBBF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29BCBA1-37AD-4F35-AC4D-16E3BEA4DA51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1290" windowWidth="19065" windowHeight="14460" activeTab="1" xr2:uid="{7BA86FE3-6026-4542-9E9A-BAA3BB6360EB}"/>
+    <workbookView xWindow="4140" yWindow="2280" windowWidth="16560" windowHeight="14460" activeTab="1" xr2:uid="{7BA86FE3-6026-4542-9E9A-BAA3BB6360EB}"/>
   </bookViews>
   <sheets>
     <sheet name="변경점" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>건물 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>텍스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,18 +173,6 @@
   </si>
   <si>
     <t>1. 하단 인터페이스 (건물 선택)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근거리 유닛 강화 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중거리 유닛 강화 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 유닛 강화 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -261,6 +245,62 @@
   </si>
   <si>
     <t>1-8. 유닛 추가 예정인 경우 추가 예정 이미지가 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 강화 완료까지 남은 시간 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 강화에 필요한 코스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 치료까지 남은 시간 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 치료에 필요한 코스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시 유닛 치료 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료소 수용 인원과 치료가 필요한 양 유닛의 수 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화소 설명과 가화 가능 양 유닛의 수 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시 한 유닛 강화 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1. 치료 가능 인원이 없을 경우 비활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 안내 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 강화 시간 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 코스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1. 강화 가능 인원이 없을 경우 비활성화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,7 +643,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,13 +675,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>611494</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>191854</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -651,8 +697,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="683559" y="13928912"/>
-          <a:ext cx="4074111" cy="2108060"/>
+          <a:off x="688731" y="17057077"/>
+          <a:ext cx="4099109" cy="2104181"/>
           <a:chOff x="4056319" y="2377851"/>
           <a:chExt cx="4089480" cy="2102297"/>
         </a:xfrm>
@@ -749,8 +795,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="683559" y="661147"/>
-          <a:ext cx="4072966" cy="2123530"/>
+          <a:off x="688731" y="652096"/>
+          <a:ext cx="4097964" cy="2119651"/>
           <a:chOff x="4056319" y="2377851"/>
           <a:chExt cx="4089480" cy="2102297"/>
         </a:xfrm>
@@ -825,13 +871,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>130434</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>96100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>316579</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>65413</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1003,13 +1049,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>653144</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>498231</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>103414</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1166,13 +1212,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>303380</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>27126</xdr:rowOff>
+      <xdr:rowOff>56891</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>485140</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>199115</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>20521</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1189,7 +1235,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="303380" y="2342892"/>
+          <a:off x="303380" y="2372657"/>
           <a:ext cx="181760" cy="171989"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1506,13 +1552,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>485140</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>113121</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>83344</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>142886</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1530,9 +1576,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="485140" y="2428887"/>
-          <a:ext cx="282813" cy="29753"/>
+        <a:xfrm flipH="1">
+          <a:off x="485140" y="2458640"/>
+          <a:ext cx="282813" cy="12"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1564,13 +1610,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209341</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>65413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>223507</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2421,13 +2467,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>25376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>495525</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>197365</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2599,13 +2645,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>93729</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>640083</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>136571</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2761,13 +2807,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>495525</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>111371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>93729</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>118712</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2796,6 +2842,4532 @@
         <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1437</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>610349</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>207324</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="40" name="그룹 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435E8A81-B086-4B6F-A385-0CB0B840AB24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="690168" y="7678615"/>
+          <a:ext cx="4096527" cy="2119651"/>
+          <a:chOff x="4056319" y="2377851"/>
+          <a:chExt cx="4089480" cy="2102297"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="41" name="그림 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1353CD01-36AC-4F0D-9276-19EFB7F2B62F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4056319" y="2377851"/>
+            <a:ext cx="4089480" cy="2102297"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="42" name="그림 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97AA996-CE24-4782-8217-FAD88CF8E075}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect t="75101"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4056319" y="3904352"/>
+            <a:ext cx="4089480" cy="575796"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>186929</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>178126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>77391</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123049</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="그룹 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAED6B45-2EF9-4490-80A0-3D6380C3D8E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2985814" y="9344107"/>
+          <a:ext cx="2645385" cy="369884"/>
+          <a:chOff x="6219825" y="5430581"/>
+          <a:chExt cx="4660438" cy="644490"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="모서리가 둥근 직사각형 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B2FB15E-E1AD-407D-BB8C-5C0070C5BBE4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6219825" y="5467350"/>
+            <a:ext cx="2929658" cy="545151"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="직사각형 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7DE6B45-646E-4779-9D8D-D3501137FC6C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6670655" y="5742511"/>
+            <a:ext cx="633819" cy="180299"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>치료 하기</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="TextBox 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C757201-4B3C-4524-AF96-79D955045952}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6274082" y="5430581"/>
+            <a:ext cx="4606181" cy="322698"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="1" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>최대 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 랜덤으로 치료합니다</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>.  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="400" b="1"/>
+              <a:t>현재 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="400" b="1"/>
+              <a:t> 유닛이 치료가 필요합니다</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="400" b="1"/>
+              <a:t>.</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="400" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="TextBox 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38168E3F-A68F-4AF6-90BE-86172ADE7073}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8003340" y="5594225"/>
+            <a:ext cx="890947" cy="480846"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" rtlCol="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="400" b="1"/>
+              <a:t>필요 건초  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="400" b="1"/>
+              <a:t>150</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="1" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>남은 시간  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>12</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="400" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>672702</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>170003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>169852</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133632</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="타원 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D22363-5249-426F-9264-12AD2668B7D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2774155" y="9177081"/>
+          <a:ext cx="181760" cy="171989"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>268118</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>434578</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>113109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="직사각형 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00ADD06-5B97-4D03-9A7B-39BA35EE8AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3053359" y="9281332"/>
+          <a:ext cx="1532805" cy="107156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US">
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>169852</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>268118</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="직선 연결선 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E79AFF-5F7C-42B2-A65C-1C5099690192}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="47" idx="1"/>
+          <a:endCxn id="46" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2955915" y="9263076"/>
+          <a:ext cx="98266" cy="11893"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>369092</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>550852</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>68148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="타원 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04E503A-975A-4285-8D44-CDB24F3D1AC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2470545" y="9319956"/>
+          <a:ext cx="181760" cy="171989"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>550852</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>190513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>441237</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>195385</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="직선 연결선 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB3B1FB2-E045-49E0-AF32-36A3060719DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="24" idx="1"/>
+          <a:endCxn id="50" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2652305" y="9405951"/>
+          <a:ext cx="574995" cy="4872"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>506014</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>62847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3164</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>26477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="타원 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC35331B-AB91-449E-84FE-81061C70E88D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4661295" y="9278285"/>
+          <a:ext cx="181760" cy="171989"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>553867</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>113110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>196453</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="직사각형 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB832E21-4937-4053-8191-C9ACD61607C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4024539" y="9328548"/>
+          <a:ext cx="380773" cy="83343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US">
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>148842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>506014</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="직선 연결선 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E4BBAE-F754-4FED-942E-39E78C58F159}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="56" idx="3"/>
+          <a:endCxn id="55" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4405312" y="9364280"/>
+          <a:ext cx="255983" cy="5940"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>553867</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>196453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="직사각형 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{069DF0A8-4C33-47CA-B57A-EB54223E2A65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4024539" y="9411891"/>
+          <a:ext cx="380773" cy="83343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US">
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>146191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277008</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>109821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="타원 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C57F77-609B-4CF0-A4A2-9F881CF283AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4935139" y="9361629"/>
+          <a:ext cx="181760" cy="171989"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>23827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>29766</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="직선 연결선 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D167A91-8604-42B5-90E0-88A95FEDE12B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="58" idx="3"/>
+          <a:endCxn id="62" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4405312" y="9447624"/>
+          <a:ext cx="529827" cy="5939"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>608912</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>207324</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="74" name="그룹 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7525DA-2FC1-411E-9779-AAF7E39F3442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="683172" y="12367846"/>
+          <a:ext cx="4102086" cy="2119651"/>
+          <a:chOff x="4056319" y="2377851"/>
+          <a:chExt cx="4089480" cy="2102297"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="75" name="그림 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F30618C-FAC6-4E9B-8BA7-11B04FA7B22D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4056319" y="2377851"/>
+            <a:ext cx="4089480" cy="2102297"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="76" name="그림 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E18741-F847-4369-AF0E-89AB4408B02B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect t="75101"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4056319" y="3904352"/>
+            <a:ext cx="4089480" cy="575796"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>185492</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>178127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>75954</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>120294</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="77" name="그룹 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0718E20-A41B-44A8-86E5-8C5AB87A9C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2984377" y="14033339"/>
+          <a:ext cx="2645385" cy="367128"/>
+          <a:chOff x="6219825" y="5430581"/>
+          <a:chExt cx="4660438" cy="639628"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="78" name="모서리가 둥근 직사각형 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B57FECF-E99C-4B46-BBB5-48EA4291030A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6219825" y="5467350"/>
+            <a:ext cx="2929658" cy="545151"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="직사각형 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4511361-1553-437C-8DBB-00EE3C23E025}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6670655" y="5742511"/>
+            <a:ext cx="633819" cy="180299"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>강화 하기</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="TextBox 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5349736D-0088-4D63-9D58-71A2A9B286A2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6274082" y="5430581"/>
+            <a:ext cx="4606181" cy="322698"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="1" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>랜덤으로 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>강화</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>합니다</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>.         </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="400" b="1"/>
+              <a:t>현재 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="400" b="1"/>
+              <a:t> 유닛이 강화가 가능합니다</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="400" b="1"/>
+              <a:t>.</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="400" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="TextBox 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B4AF44-D974-492B-A99E-C19096A67FC6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8003340" y="5594226"/>
+            <a:ext cx="846763" cy="475983"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" rtlCol="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="400" b="1"/>
+              <a:t>필요 건초  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="400" b="1"/>
+              <a:t>80</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="1" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>남은 시간  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>20</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="400" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266681</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>433141</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>113109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="직사각형 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3951AB76-7031-4986-8807-412DA6BC4DCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3051922" y="13498608"/>
+          <a:ext cx="1532805" cy="107156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US">
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>672702</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>168485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>169852</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>132114</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="타원 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B01C2E6-7F00-4CB0-BD33-40F112ED49E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2782856" y="13598735"/>
+          <a:ext cx="185881" cy="176110"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>169852</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>46120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>268118</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>58013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="직선 연결선 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777C197D-0405-4E6A-8363-78AFCCE3D6C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="83" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2968737" y="13688851"/>
+          <a:ext cx="98266" cy="11893"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>369092</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>103000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>550852</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>66630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="타원 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F27AF1-8FBC-4598-8CF3-0FEB25C9DE7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2479246" y="13745731"/>
+          <a:ext cx="181760" cy="176111"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>550852</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>188995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>441237</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>193867</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="직선 연결선 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B37022-C953-48D1-9376-684A6E12A321}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="85" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2661006" y="13831726"/>
+          <a:ext cx="579116" cy="4872"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>506014</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>61329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3164</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>24959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="타원 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2905C37-147F-4D77-A886-2C820293E3EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4682360" y="13704060"/>
+          <a:ext cx="185881" cy="176111"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>553867</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>111592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>194935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="직사각형 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791C6F0A-B1AA-40B4-842C-5D7596CAC5C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4041482" y="13754323"/>
+          <a:ext cx="384895" cy="83343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US">
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>147324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>506014</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>153264</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="직선 연결선 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357F3B5C-53F0-47D5-9B80-4733B936F2CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="88" idx="3"/>
+          <a:endCxn id="87" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4426377" y="13790055"/>
+          <a:ext cx="255983" cy="5940"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>553867</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>194935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>69919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="직사각형 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{818C3EB0-5E0D-499D-94C6-6EBE5481AFEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4041482" y="13837666"/>
+          <a:ext cx="384895" cy="87465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US">
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>144673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277008</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>108303</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="타원 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB59A37E-ED69-40E7-87E9-2308E526AFB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4960325" y="13787404"/>
+          <a:ext cx="181760" cy="176111"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>22309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>28248</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="직선 연결선 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D7F3A0B-F102-4414-A3B4-090D4D0022B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="90" idx="3"/>
+          <a:endCxn id="91" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4426377" y="13877521"/>
+          <a:ext cx="533948" cy="5939"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3243,10 +7815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6691A6DC-3AB5-479A-B0C4-D5471FE8A986}">
-  <dimension ref="B1:AE91"/>
+  <dimension ref="B1:AE106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3257,7 +7829,7 @@
     <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="20"/>
@@ -3410,7 +7982,7 @@
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -3440,7 +8012,7 @@
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B25" s="22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -3470,7 +8042,7 @@
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B26" s="22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3500,7 +8072,7 @@
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B27" s="22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -3530,7 +8102,7 @@
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -3560,7 +8132,7 @@
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B29" s="22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3584,7 +8156,7 @@
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B31" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -3597,7 +8169,7 @@
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B32" s="36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -3666,7 +8238,7 @@
     </row>
     <row r="35" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="4"/>
@@ -3807,23 +8379,15 @@
       <c r="AE39" s="4"/>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="6"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
@@ -3843,21 +8407,15 @@
       <c r="AE40" s="4"/>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B41" s="31">
-        <v>1</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="10"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
@@ -3877,21 +8435,15 @@
       <c r="AE41" s="4"/>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B42" s="32">
-        <v>2</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="10"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
@@ -3911,21 +8463,15 @@
       <c r="AE42" s="4"/>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B43" s="32">
-        <v>3</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="10"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
@@ -3945,21 +8491,15 @@
       <c r="AE43" s="4"/>
     </row>
     <row r="44" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B44" s="32">
-        <v>4</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>28</v>
-      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="10"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
@@ -3979,21 +8519,15 @@
       <c r="AE44" s="4"/>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B45" s="32">
-        <v>5</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="10"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
@@ -4069,15 +8603,23 @@
       <c r="AE47" s="4"/>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+      <c r="B48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="6"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
@@ -4097,15 +8639,23 @@
       <c r="AE48" s="4"/>
     </row>
     <row r="49" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B49" s="30"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="B49" s="32">
+        <v>1</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="10"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
@@ -4125,15 +8675,23 @@
       <c r="AE49" s="4"/>
     </row>
     <row r="50" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B50" s="29"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="B50" s="32">
+        <v>2</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="10"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
@@ -4152,16 +8710,24 @@
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
     </row>
-    <row r="51" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="29"/>
-      <c r="C51" s="4"/>
+    <row r="51" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B51" s="32">
+        <v>3</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+      <c r="E51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="10"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
@@ -4180,18 +8746,24 @@
       <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
     </row>
-    <row r="52" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+    <row r="52" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B52" s="32">
+        <v>4</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="10"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
@@ -4211,10 +8783,10 @@
       <c r="AE52" s="4"/>
     </row>
     <row r="53" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B53" s="29"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="28"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="E53" s="28"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -4239,10 +8811,12 @@
       <c r="AE53" s="4"/>
     </row>
     <row r="54" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B54" s="29"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="B54" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="38"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="39"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -4267,117 +8841,202 @@
       <c r="AE54" s="4"/>
     </row>
     <row r="55" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="E55" s="14"/>
-    </row>
-    <row r="56" spans="2:31" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B57" s="31">
-        <v>1</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="10"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+    </row>
+    <row r="56" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="29"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+    </row>
+    <row r="57" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="4"/>
     </row>
     <row r="58" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B58" s="32">
-        <v>2</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="10"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4"/>
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B59" s="32">
-        <v>3</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="10"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
     </row>
     <row r="60" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B60" s="32">
-        <v>4</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="B60" s="30"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="10"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+      <c r="AE60" s="4"/>
     </row>
     <row r="61" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B61" s="32">
-        <v>5</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="10"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="4"/>
+      <c r="AE61" s="4"/>
     </row>
     <row r="62" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B62" s="30"/>
@@ -4389,294 +9048,614 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-    </row>
-    <row r="63" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-    </row>
-    <row r="64" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="26"/>
-      <c r="D64" s="20"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="4"/>
+      <c r="AE62" s="4"/>
+    </row>
+    <row r="63" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B63" s="30"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4"/>
+      <c r="AE63" s="4"/>
+    </row>
+    <row r="64" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B64" s="30"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="21"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
+      <c r="AB64" s="4"/>
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="4"/>
+      <c r="AE64" s="4"/>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B65" s="30"/>
       <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B66" s="21"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4"/>
+      <c r="AE65" s="4"/>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B66" s="30"/>
       <c r="C66" s="4"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B67" s="21"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="4"/>
+      <c r="AE66" s="4"/>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B67" s="30"/>
       <c r="C67" s="4"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B68" s="21"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="4"/>
+      <c r="AB67" s="4"/>
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="4"/>
+      <c r="AE67" s="4"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B68" s="29"/>
       <c r="C68" s="4"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B69" s="21"/>
-      <c r="C69" s="4"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B70" s="21"/>
-      <c r="C70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B71" s="21"/>
-      <c r="C71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B72" s="21"/>
-      <c r="C72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="4"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4"/>
+      <c r="AE68" s="4"/>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="E69" s="14"/>
+    </row>
+    <row r="70" spans="2:31" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B71" s="32">
+        <v>1</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="10"/>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B72" s="32">
+        <v>2</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="10"/>
+      <c r="E72" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="10"/>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B73" s="32">
+        <v>3</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="10"/>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B74" s="32">
+        <v>4</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="10"/>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B75" s="37"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
       <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B76" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="38"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B77" s="5" t="s">
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B77" s="30"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+    </row>
+    <row r="79" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="26"/>
+      <c r="D79" s="20"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B80" s="21"/>
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B81" s="21"/>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B82" s="21"/>
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B83" s="21"/>
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B84" s="21"/>
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B85" s="21"/>
+      <c r="C85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B86" s="21"/>
+      <c r="C86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B87" s="21"/>
+      <c r="C87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B92" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="5" t="s">
+      <c r="D92" s="7"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G92" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="6"/>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="8">
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B93" s="8">
         <v>1</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C93" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="10"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="9" t="s">
+      <c r="D93" s="10"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G93" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="10"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="8">
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="10"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B94" s="8">
         <v>2</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C94" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="9" t="s">
+      <c r="D94" s="11"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G94" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="1"/>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="2"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B81" s="15" t="s">
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B95" s="2"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B96" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="17"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="23" t="s">
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="17"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="19"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="23"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="19"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B84" s="23" t="s">
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="19"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B98" s="23"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="19"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B99" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="19"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B100" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="19"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B101" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="19"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B102" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="19"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B103" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="19"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B85" s="22" t="s">
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="19"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B104" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="19"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B105" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="19"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B86" s="22" t="s">
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="19"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B106" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="19"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B87" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="19"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="19"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B89" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="19"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B90" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="19"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B91" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="12"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4819,18 +9798,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4852,14 +9831,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A1B56B9-25D2-49FB-B6AC-2122E6691F34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AD45188-EE12-4B18-9CCA-576894CE8A94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -4873,4 +9844,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A1B56B9-25D2-49FB-B6AC-2122E6691F34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>